--- a/data/trans_dic/P15_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con convivientes no familiares con COVID-19</t>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,27 +691,27 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -720,37 +721,37 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>0,56%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,29</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,92</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,19</t>
+          <t>0,12; 1,39</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -855,7 +856,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -865,62 +866,62 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,18</t>
+          <t>0,14; 1,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,61</t>
+          <t>0,21; 1,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,49</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,58</t>
+          <t>0,07; 0,69</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,15</t>
+          <t>0,17; 1,05</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,02</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1025,62 +1026,62 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1090,7 +1091,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,73</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,4</t>
+          <t>0,23; 2,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,91</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,3</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,73</t>
+          <t>0,35; 1,83</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,8</t>
+          <t>0,12; 0,92</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1195,72 +1196,72 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,3%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>0,29%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,72</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,73</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,66</t>
+          <t>0,09; 0,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,81</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,93</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,34</t>
+          <t>0,05; 0,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,63</t>
+          <t>0,09; 0,85</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,67</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 0,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 0,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 1,08</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 0,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 0,72</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con convivientes no familiares con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2757</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8277</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11528</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10523</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13887</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22251</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14003</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11575</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1968; 22580</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5949</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8643</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5949</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14843</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 24741</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13240</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1730; 16355</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3168; 23452</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12172</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1689; 16958</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5430; 32717</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6117</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9453</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2324</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6031</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15570</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7272</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17353</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19922</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10464</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12568</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16178</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2155; 23240</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14195</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13897</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21151</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6303; 32731</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2626; 20819</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5468</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10480</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17322</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13014</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1923; 16053</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 19440</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13203</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1918; 15846</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2520; 24192</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16643</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12213</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11252</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17662</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19140</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18928</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>29875</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>30392</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2418; 22346</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4242; 31268</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3546; 26219</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3878; 25459</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2443; 24788</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7918; 34664</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9110; 38663</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3913; 25053</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7991; 37329</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14785; 50464</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>15496; 50818</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>